--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Customer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:H13"/>
 </workbook>
 </file>
 
@@ -120,10 +119,10 @@
     <t>User or Password is not valid</t>
   </si>
   <si>
-    <t>bingbong24@gmail.com</t>
-  </si>
-  <si>
-    <t>you24@gmail.com</t>
+    <t>you27@gmail.com</t>
+  </si>
+  <si>
+    <t>bingbong27@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -735,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>26</v>
@@ -800,7 +799,7 @@
         <v>587461</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>28</v>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -119,10 +119,10 @@
     <t>User or Password is not valid</t>
   </si>
   <si>
-    <t>you27@gmail.com</t>
-  </si>
-  <si>
-    <t>bingbong27@gmail.com</t>
+    <t>bingbong40@gmail.com</t>
+  </si>
+  <si>
+    <t>you41@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>26</v>
@@ -799,7 +799,7 @@
         <v>587461</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>28</v>
@@ -830,8 +830,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14295" windowHeight="5895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14295" windowHeight="5895"/>
   </bookViews>
   <sheets>
-    <sheet name="DataSet" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="NewCustomer" sheetId="2" r:id="rId2"/>
+    <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
-  <si>
-    <t>TC_01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>User</t>
   </si>
@@ -104,12 +102,6 @@
     <t>Customer details updated Successfully!!!</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
     <t>TC_03</t>
   </si>
   <si>
@@ -123,6 +115,24 @@
   </si>
   <si>
     <t>you41@gmail.com</t>
+  </si>
+  <si>
+    <t>User-ID must not be blank</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Password must not be blank</t>
+  </si>
+  <si>
+    <t>CN02</t>
+  </si>
+  <si>
+    <t>LO03</t>
+  </si>
+  <si>
+    <t>LO02</t>
   </si>
 </sst>
 </file>
@@ -538,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -555,95 +565,122 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="E3" s="1" t="s">
-        <v>29</v>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="E9" s="1" t="s">
-        <v>0</v>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -656,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,7 +707,7 @@
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
@@ -678,144 +715,84 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5">
-        <v>652105</v>
-      </c>
-      <c r="G6" s="5">
-        <v>587461</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="J7" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1">
@@ -825,15 +802,95 @@
     </row>
     <row r="11" spans="1:12" hidden="1">
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>652105</v>
+      </c>
+      <c r="G2" s="5">
+        <v>587461</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="J3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14295" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14295" windowHeight="5895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="NewCustomer" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateNewCustomer" sheetId="2" r:id="rId2"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>User</t>
   </si>
@@ -96,15 +96,9 @@
     <t>123456</t>
   </si>
   <si>
-    <t>93390</t>
-  </si>
-  <si>
     <t>Customer details updated Successfully!!!</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>bingbong40@gmail.com</t>
   </si>
   <si>
-    <t>you41@gmail.com</t>
-  </si>
-  <si>
     <t>User-ID must not be blank</t>
   </si>
   <si>
@@ -133,6 +124,42 @@
   </si>
   <si>
     <t>LO02</t>
+  </si>
+  <si>
+    <t>ED03</t>
+  </si>
+  <si>
+    <t>86067</t>
+  </si>
+  <si>
+    <t>CN03</t>
+  </si>
+  <si>
+    <t>Customer name must not be blank</t>
+  </si>
+  <si>
+    <t>Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Address Field must not be blank</t>
+  </si>
+  <si>
+    <t>City Field must not be blank</t>
+  </si>
+  <si>
+    <t>State must not be blank</t>
+  </si>
+  <si>
+    <t>PIN Code must not be blank</t>
+  </si>
+  <si>
+    <t>Mobile no must not be blank</t>
+  </si>
+  <si>
+    <t>Email-ID must not be blank</t>
+  </si>
+  <si>
+    <t>you46@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -156,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -243,6 +276,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -550,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -584,12 +624,12 @@
     </row>
     <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -609,7 +649,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -620,7 +660,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -631,18 +671,18 @@
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -650,21 +690,21 @@
         <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -680,7 +720,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -691,16 +731,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -715,99 +755,163 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="13" spans="1:12">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1">
-      <c r="A9" s="8" t="s">
+    <row r="14" spans="1:12">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="L14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1">
-      <c r="B10" s="9">
+    <row r="21" spans="1:3" hidden="1">
+      <c r="B21" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1">
-      <c r="C11" s="8" t="s">
+    <row r="22" spans="1:3" hidden="1">
+      <c r="C22" s="8" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -819,17 +923,20 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>14</v>
@@ -858,7 +965,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -876,15 +983,15 @@
         <v>587461</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>User</t>
   </si>
@@ -105,15 +105,9 @@
     <t>User or Password is not valid</t>
   </si>
   <si>
-    <t>bingbong40@gmail.com</t>
-  </si>
-  <si>
     <t>User-ID must not be blank</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>Password must not be blank</t>
   </si>
   <si>
@@ -135,31 +129,24 @@
     <t>CN03</t>
   </si>
   <si>
-    <t>Customer name must not be blank</t>
-  </si>
-  <si>
-    <t>Date Field must not be blank</t>
-  </si>
-  <si>
-    <t>Address Field must not be blank</t>
-  </si>
-  <si>
-    <t>City Field must not be blank</t>
-  </si>
-  <si>
-    <t>State must not be blank</t>
-  </si>
-  <si>
-    <t>PIN Code must not be blank</t>
-  </si>
-  <si>
-    <t>Mobile no must not be blank</t>
-  </si>
-  <si>
-    <t>Email-ID must not be blank</t>
-  </si>
-  <si>
-    <t>you46@gmail.com</t>
+    <t>Customer name must not be blank
+Date Field must not be blank
+Address Field must not be blank
+City Field must not be blank
+State must not be blank
+PIN Code must not be blank
+Mobile no must not be blank
+Email-ID must not be blank
+Password must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bingbong41@gmail.com</t>
+  </si>
+  <si>
+    <t>you52@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -250,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -280,10 +267,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,7 +575,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,7 +589,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -624,12 +608,12 @@
     </row>
     <row r="3" spans="1:5">
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -675,33 +659,29 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>28</v>
@@ -720,7 +700,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -731,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,163 +735,118 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="135">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
-        <v>42</v>
+      <c r="J5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="L14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1">
-      <c r="A20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1">
-      <c r="B21" s="9">
+    <row r="13" spans="1:12" hidden="1">
+      <c r="B13" s="9">
         <v>67743</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1">
-      <c r="C22" s="8" t="s">
+    <row r="14" spans="1:12" hidden="1">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -923,20 +858,20 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>14</v>
@@ -965,7 +900,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
@@ -983,7 +918,7 @@
         <v>587461</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>26</v>
@@ -991,7 +926,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="J3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="14295" windowHeight="5895" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="CreateNewCustomer" sheetId="2" r:id="rId2"/>
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -146,7 +146,7 @@
     <t>bingbong41@gmail.com</t>
   </si>
   <si>
-    <t>you52@gmail.com</t>
+    <t>you54@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14295" windowHeight="5895" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13905" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:J33"/>
 </workbook>
 </file>
 
@@ -574,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -12,7 +12,6 @@
     <sheet name="EditCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J33"/>
 </workbook>
 </file>
 
@@ -576,7 +575,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>User</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>you54@gmail.com</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abc123</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,10 +606,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
